--- a/data/protocol/LZZT/usdm/pilot_LLZT_protocol_bc.xlsx
+++ b/data/protocol/LZZT/usdm/pilot_LLZT_protocol_bc.xlsx
@@ -13,7 +13,7 @@
     <sheet name="vsBloodPressure" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">'mainTimeline'!$A$1:$D$76    </definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">'mainTimeline'!$A$1:$D$134    </definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="1">'adverseEventTimeline'!$A$1:$D$3    </definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="2">'earlyTerminationTimeline'!$A$1:$D$131    </definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="3">'vsBloodPressure'!$A$1:$D$9    </definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="335">
   <si>
     <t>Obs</t>
   </si>
@@ -250,6 +250,114 @@
     <t>C111238</t>
   </si>
   <si>
+    <t>Myocardial Infarction ECG Assessment</t>
+  </si>
+  <si>
+    <t>C111280</t>
+  </si>
+  <si>
+    <t>Pacemaker ECG Assessment</t>
+  </si>
+  <si>
+    <t>C111285</t>
+  </si>
+  <si>
+    <t>Rhythm Not Otherwise Specified ECG Assessment</t>
+  </si>
+  <si>
+    <t>C111307</t>
+  </si>
+  <si>
+    <t>ST Segment, T wave, and U wave ECG Assessment</t>
+  </si>
+  <si>
+    <t>C111363</t>
+  </si>
+  <si>
+    <t>Sinus Node Rhythm and Arrhythmia ECG Assessment</t>
+  </si>
+  <si>
+    <t>C111312</t>
+  </si>
+  <si>
+    <t>Supraventricular Arrhythmia ECG Assessment</t>
+  </si>
+  <si>
+    <t>C111320</t>
+  </si>
+  <si>
+    <t>Supraventricular Tachyarrhythmia ECG Assessment</t>
+  </si>
+  <si>
+    <t>C111321</t>
+  </si>
+  <si>
+    <t>Ventricular Arrhythmia ECG Assessment</t>
+  </si>
+  <si>
+    <t>C111330</t>
+  </si>
+  <si>
+    <t>Ventricular Tachyarrhythmia ECG Assessment</t>
+  </si>
+  <si>
+    <t>C111331</t>
+  </si>
+  <si>
+    <t>Aggregate PR Interval</t>
+  </si>
+  <si>
+    <t>C117773</t>
+  </si>
+  <si>
+    <t>Aggregate QRS Duration</t>
+  </si>
+  <si>
+    <t>C117779</t>
+  </si>
+  <si>
+    <t>Aggregate QT Interval</t>
+  </si>
+  <si>
+    <t>C117783</t>
+  </si>
+  <si>
+    <t>Aggregate QTCB Interval</t>
+  </si>
+  <si>
+    <t>C117784</t>
+  </si>
+  <si>
+    <t>Aggregate QTCF Interval</t>
+  </si>
+  <si>
+    <t>C117786</t>
+  </si>
+  <si>
+    <t>Aggregate RR Interval</t>
+  </si>
+  <si>
+    <t>C117791</t>
+  </si>
+  <si>
+    <t>Mean Heart Rate by Electrocardiogram</t>
+  </si>
+  <si>
+    <t>C119259</t>
+  </si>
+  <si>
+    <t>QRS Axis</t>
+  </si>
+  <si>
+    <t>C118165</t>
+  </si>
+  <si>
+    <t>QTc Correction Method Unspecified, Aggregate</t>
+  </si>
+  <si>
+    <t>C174285</t>
+  </si>
+  <si>
     <t>CT scan</t>
   </si>
   <si>
@@ -331,7 +439,76 @@
     <t>C51948</t>
   </si>
   <si>
-    <t>Segmented Neut</t>
+    <t>Segmented Neutrophil Count</t>
+  </si>
+  <si>
+    <t>C81997</t>
+  </si>
+  <si>
+    <t>Neutrophil Band Form Count</t>
+  </si>
+  <si>
+    <t>C64830</t>
+  </si>
+  <si>
+    <t>Absolute Neutrophil Count</t>
+  </si>
+  <si>
+    <t>C63321</t>
+  </si>
+  <si>
+    <t>Monocyte Count</t>
+  </si>
+  <si>
+    <t>C64823</t>
+  </si>
+  <si>
+    <t>Eosinophil Count</t>
+  </si>
+  <si>
+    <t>C64550</t>
+  </si>
+  <si>
+    <t>Absolute Basophil Count</t>
+  </si>
+  <si>
+    <t>C64470</t>
+  </si>
+  <si>
+    <t>Platelet Count</t>
+  </si>
+  <si>
+    <t>C51951</t>
+  </si>
+  <si>
+    <t>Microcyte Count</t>
+  </si>
+  <si>
+    <t>C64822</t>
+  </si>
+  <si>
+    <t>Macrocyte Count</t>
+  </si>
+  <si>
+    <t>C64821</t>
+  </si>
+  <si>
+    <t>Anisocyte Measurement</t>
+  </si>
+  <si>
+    <t>C74797</t>
+  </si>
+  <si>
+    <t>Poikilocyte Measurement</t>
+  </si>
+  <si>
+    <t>C79602</t>
+  </si>
+  <si>
+    <t>Polychromasia</t>
+  </si>
+  <si>
+    <t>C64803</t>
   </si>
   <si>
     <t>Chemistry</t>
@@ -385,6 +562,120 @@
     <t>C125949</t>
   </si>
   <si>
+    <t>Bicarbonate Measurement</t>
+  </si>
+  <si>
+    <t>C74667</t>
+  </si>
+  <si>
+    <t>Chloride Measurement</t>
+  </si>
+  <si>
+    <t>C64495</t>
+  </si>
+  <si>
+    <t>Total Bilirubin Measurement</t>
+  </si>
+  <si>
+    <t>C38037</t>
+  </si>
+  <si>
+    <t>Gamma Glutamyl Transpeptidase Measurement</t>
+  </si>
+  <si>
+    <t>C64847</t>
+  </si>
+  <si>
+    <t>Urate Measurement</t>
+  </si>
+  <si>
+    <t>C64814</t>
+  </si>
+  <si>
+    <t>Phosphate Measurement</t>
+  </si>
+  <si>
+    <t>C64857</t>
+  </si>
+  <si>
+    <t>Calcium Measurement</t>
+  </si>
+  <si>
+    <t>C64488</t>
+  </si>
+  <si>
+    <t>Glucose Measurement</t>
+  </si>
+  <si>
+    <t>C105585</t>
+  </si>
+  <si>
+    <t>Total Protein Measurement</t>
+  </si>
+  <si>
+    <t>C64858</t>
+  </si>
+  <si>
+    <t>Cholesterol Measurement</t>
+  </si>
+  <si>
+    <t>C105586</t>
+  </si>
+  <si>
+    <t>Triiodothyronine Uptake Measurement</t>
+  </si>
+  <si>
+    <t>C74748</t>
+  </si>
+  <si>
+    <t>Triiodothyronine Measurement</t>
+  </si>
+  <si>
+    <t>C74747</t>
+  </si>
+  <si>
+    <t>Free Thyroxine Measurement</t>
+  </si>
+  <si>
+    <t>C74786</t>
+  </si>
+  <si>
+    <t>Free Thyroxine Index</t>
+  </si>
+  <si>
+    <t>C170598</t>
+  </si>
+  <si>
+    <t>Thyrotropin Measurement</t>
+  </si>
+  <si>
+    <t>C64813</t>
+  </si>
+  <si>
+    <t>Folic Acid Measurement</t>
+  </si>
+  <si>
+    <t>C74676</t>
+  </si>
+  <si>
+    <t>Vitamin B12 Measurement</t>
+  </si>
+  <si>
+    <t>C64817</t>
+  </si>
+  <si>
+    <t>Treponema pallidum Antibody Measurement</t>
+  </si>
+  <si>
+    <t>C132388</t>
+  </si>
+  <si>
+    <t>Treponema pallidum DNA Measurement</t>
+  </si>
+  <si>
+    <t>C198341</t>
+  </si>
+  <si>
     <t>Urinalysis</t>
   </si>
   <si>
@@ -400,30 +691,12 @@
     <t>C64832</t>
   </si>
   <si>
-    <t>Total Protein Measurement</t>
-  </si>
-  <si>
-    <t>C64858</t>
-  </si>
-  <si>
-    <t>Glucose Measurement</t>
-  </si>
-  <si>
-    <t>C105585</t>
-  </si>
-  <si>
     <t>Ketone Measurement</t>
   </si>
   <si>
     <t>C64854</t>
   </si>
   <si>
-    <t>Total Bilirubin Measurement</t>
-  </si>
-  <si>
-    <t>C38037</t>
-  </si>
-  <si>
     <t>Urobilinogen Measurement</t>
   </si>
   <si>
@@ -529,7 +802,70 @@
     <t>C100277</t>
   </si>
   <si>
-    <t>CDISC</t>
+    <t>CDISC ADAS-Cog - Delayed Word Recall Summary Score</t>
+  </si>
+  <si>
+    <t>C100215</t>
+  </si>
+  <si>
+    <t>CDISC ADAS-Cog - Ideational Praxis Summary Score</t>
+  </si>
+  <si>
+    <t>C100232</t>
+  </si>
+  <si>
+    <t>CDISC ADAS-Cog - Executive Function Maze: Errors</t>
+  </si>
+  <si>
+    <t>C100285</t>
+  </si>
+  <si>
+    <t>CDISC ADAS-Cog - Executive Function Maze: Time</t>
+  </si>
+  <si>
+    <t>C100286</t>
+  </si>
+  <si>
+    <t>CDISC ADAS-Cog - Number Cancellation Summary Score</t>
+  </si>
+  <si>
+    <t>C100280</t>
+  </si>
+  <si>
+    <t>CDISC ADAS-Cog - Naming Objects and Fingers Summary Score</t>
+  </si>
+  <si>
+    <t>C100191</t>
+  </si>
+  <si>
+    <t>CDISC ADAS-Cog - Orientation Summary Score</t>
+  </si>
+  <si>
+    <t>C100238</t>
+  </si>
+  <si>
+    <t>CDISC ADAS-Cog - Word Recognition Summary Score</t>
+  </si>
+  <si>
+    <t>C100247</t>
+  </si>
+  <si>
+    <t>CDISC ADAS-Cog - Remembering Test Instructions</t>
+  </si>
+  <si>
+    <t>C100275</t>
+  </si>
+  <si>
+    <t>CDISC ADAS-Cog - Word Recall Average Score</t>
+  </si>
+  <si>
+    <t>C100177</t>
+  </si>
+  <si>
+    <t>CDISC ADAS-Cog - Spoken Language Ability</t>
+  </si>
+  <si>
+    <t>C100276</t>
   </si>
   <si>
     <t>Adverse events</t>
@@ -563,348 +899,6 @@
   </si>
   <si>
     <t>C49677</t>
-  </si>
-  <si>
-    <t>Myocardial Infarction ECG Assessment</t>
-  </si>
-  <si>
-    <t>C111280</t>
-  </si>
-  <si>
-    <t>Pacemaker ECG Assessment</t>
-  </si>
-  <si>
-    <t>C111285</t>
-  </si>
-  <si>
-    <t>Rhythm Not Otherwise Specified ECG Assessment</t>
-  </si>
-  <si>
-    <t>C111307</t>
-  </si>
-  <si>
-    <t>ST Segment, T wave, and U wave ECG Assessment</t>
-  </si>
-  <si>
-    <t>C111363</t>
-  </si>
-  <si>
-    <t>Sinus Node Rhythm and Arrhythmia ECG Assessment</t>
-  </si>
-  <si>
-    <t>C111312</t>
-  </si>
-  <si>
-    <t>Supraventricular Arrhythmia ECG Assessment</t>
-  </si>
-  <si>
-    <t>C111320</t>
-  </si>
-  <si>
-    <t>Supraventricular Tachyarrhythmia ECG Assessment</t>
-  </si>
-  <si>
-    <t>C111321</t>
-  </si>
-  <si>
-    <t>Ventricular Arrhythmia ECG Assessment</t>
-  </si>
-  <si>
-    <t>C111330</t>
-  </si>
-  <si>
-    <t>Ventricular Tachyarrhythmia ECG Assessment</t>
-  </si>
-  <si>
-    <t>C111331</t>
-  </si>
-  <si>
-    <t>Aggregate PR Interval</t>
-  </si>
-  <si>
-    <t>C117773</t>
-  </si>
-  <si>
-    <t>Aggregate QRS Duration</t>
-  </si>
-  <si>
-    <t>C117779</t>
-  </si>
-  <si>
-    <t>Aggregate QT Interval</t>
-  </si>
-  <si>
-    <t>C117783</t>
-  </si>
-  <si>
-    <t>Aggregate QTCB Interval</t>
-  </si>
-  <si>
-    <t>C117784</t>
-  </si>
-  <si>
-    <t>Aggregate QTCF Interval</t>
-  </si>
-  <si>
-    <t>C117786</t>
-  </si>
-  <si>
-    <t>Aggregate RR Interval</t>
-  </si>
-  <si>
-    <t>C117791</t>
-  </si>
-  <si>
-    <t>Mean Heart Rate by Electrocardiogram</t>
-  </si>
-  <si>
-    <t>C119259</t>
-  </si>
-  <si>
-    <t>QRS Axis</t>
-  </si>
-  <si>
-    <t>C118165</t>
-  </si>
-  <si>
-    <t>QTc Correction Method Unspecified, Aggregate</t>
-  </si>
-  <si>
-    <t>C174285</t>
-  </si>
-  <si>
-    <t>Segmented Neutrophil Count</t>
-  </si>
-  <si>
-    <t>C81997</t>
-  </si>
-  <si>
-    <t>Neutrophil Band Form Count</t>
-  </si>
-  <si>
-    <t>C64830</t>
-  </si>
-  <si>
-    <t>Absolute Neutrophil Count</t>
-  </si>
-  <si>
-    <t>C63321</t>
-  </si>
-  <si>
-    <t>Monocyte Count</t>
-  </si>
-  <si>
-    <t>C64823</t>
-  </si>
-  <si>
-    <t>Eosinophil Count</t>
-  </si>
-  <si>
-    <t>C64550</t>
-  </si>
-  <si>
-    <t>Absolute Basophil Count</t>
-  </si>
-  <si>
-    <t>C64470</t>
-  </si>
-  <si>
-    <t>Platelet Count</t>
-  </si>
-  <si>
-    <t>C51951</t>
-  </si>
-  <si>
-    <t>Microcyte Count</t>
-  </si>
-  <si>
-    <t>C64822</t>
-  </si>
-  <si>
-    <t>Macrocyte Count</t>
-  </si>
-  <si>
-    <t>C64821</t>
-  </si>
-  <si>
-    <t>Anisocyte Measurement</t>
-  </si>
-  <si>
-    <t>C74797</t>
-  </si>
-  <si>
-    <t>Poikilocyte Measurement</t>
-  </si>
-  <si>
-    <t>C79602</t>
-  </si>
-  <si>
-    <t>Polychromasia</t>
-  </si>
-  <si>
-    <t>C64803</t>
-  </si>
-  <si>
-    <t>Bicarbonate Measurement</t>
-  </si>
-  <si>
-    <t>C74667</t>
-  </si>
-  <si>
-    <t>Chloride Measurement</t>
-  </si>
-  <si>
-    <t>C64495</t>
-  </si>
-  <si>
-    <t>Gamma Glutamyl Transpeptidase Measurement</t>
-  </si>
-  <si>
-    <t>C64847</t>
-  </si>
-  <si>
-    <t>Urate Measurement</t>
-  </si>
-  <si>
-    <t>C64814</t>
-  </si>
-  <si>
-    <t>Phosphate Measurement</t>
-  </si>
-  <si>
-    <t>C64857</t>
-  </si>
-  <si>
-    <t>Calcium Measurement</t>
-  </si>
-  <si>
-    <t>C64488</t>
-  </si>
-  <si>
-    <t>Cholesterol Measurement</t>
-  </si>
-  <si>
-    <t>C105586</t>
-  </si>
-  <si>
-    <t>Triiodothyronine Uptake Measurement</t>
-  </si>
-  <si>
-    <t>C74748</t>
-  </si>
-  <si>
-    <t>Triiodothyronine Measurement</t>
-  </si>
-  <si>
-    <t>C74747</t>
-  </si>
-  <si>
-    <t>Free Thyroxine Measurement</t>
-  </si>
-  <si>
-    <t>C74786</t>
-  </si>
-  <si>
-    <t>Free Thyroxine Index</t>
-  </si>
-  <si>
-    <t>C170598</t>
-  </si>
-  <si>
-    <t>Thyrotropin Measurement</t>
-  </si>
-  <si>
-    <t>C64813</t>
-  </si>
-  <si>
-    <t>Folic Acid Measurement</t>
-  </si>
-  <si>
-    <t>C74676</t>
-  </si>
-  <si>
-    <t>Vitamin B12 Measurement</t>
-  </si>
-  <si>
-    <t>C64817</t>
-  </si>
-  <si>
-    <t>Treponema pallidum Antibody Measurement</t>
-  </si>
-  <si>
-    <t>C132388</t>
-  </si>
-  <si>
-    <t>Treponema pallidum DNA Measurement</t>
-  </si>
-  <si>
-    <t>C198341</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Delayed Word Recall Summary Score</t>
-  </si>
-  <si>
-    <t>C100215</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Ideational Praxis Summary Score</t>
-  </si>
-  <si>
-    <t>C100232</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Executive Function Maze: Errors</t>
-  </si>
-  <si>
-    <t>C100285</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Executive Function Maze: Time</t>
-  </si>
-  <si>
-    <t>C100286</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Number Cancellation Summary Score</t>
-  </si>
-  <si>
-    <t>C100280</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Naming Objects and Fingers Summary Score</t>
-  </si>
-  <si>
-    <t>C100191</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Orientation Summary Score</t>
-  </si>
-  <si>
-    <t>C100238</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Word Recognition Summary Score</t>
-  </si>
-  <si>
-    <t>C100247</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Remembering Test Instructions</t>
-  </si>
-  <si>
-    <t>C100275</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Word Recall Average Score</t>
-  </si>
-  <si>
-    <t>C100177</t>
-  </si>
-  <si>
-    <t>CDISC ADAS-Cog - Spoken Language Ability</t>
-  </si>
-  <si>
-    <t>C100276</t>
   </si>
   <si>
     <t>Check adverse events</t>
@@ -1262,7 +1256,7 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
     </sheetView>
@@ -1271,7 +1265,7 @@
   <cols>
     <col min="1" max="1" width="5.71" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.71" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1728,13 +1722,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1742,13 +1736,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1756,13 +1750,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1770,13 +1764,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1784,13 +1778,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1798,13 +1792,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1812,13 +1806,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1826,13 +1820,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1840,13 +1834,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1854,13 +1848,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1868,13 +1862,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1882,13 +1876,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1896,13 +1890,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1910,13 +1904,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1924,13 +1918,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1938,13 +1932,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1952,13 +1946,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1966,13 +1960,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1980,13 +1974,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1994,13 +1988,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -2008,13 +2002,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -2022,13 +2016,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -2036,13 +2030,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -2050,13 +2044,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2064,13 +2058,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2078,13 +2072,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2092,13 +2086,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2106,13 +2100,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2120,13 +2114,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2134,13 +2128,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2148,13 +2142,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2162,13 +2156,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2176,13 +2170,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2190,13 +2184,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2204,13 +2198,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2218,13 +2212,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2232,13 +2226,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2246,13 +2240,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2260,13 +2254,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2274,13 +2268,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2288,13 +2282,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2302,13 +2296,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2316,13 +2310,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2330,18 +2324,830 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" ht="14" customHeight="1">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" ht="12" customHeight="1"/>
+    </row>
+    <row r="78" ht="14" customHeight="1">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" ht="14" customHeight="1">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" ht="14" customHeight="1">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" ht="14" customHeight="1">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" ht="14" customHeight="1">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" ht="14" customHeight="1">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" ht="14" customHeight="1">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" ht="14" customHeight="1">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" ht="14" customHeight="1">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" ht="14" customHeight="1">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" ht="14" customHeight="1">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" ht="14" customHeight="1">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" ht="14" customHeight="1">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" ht="14" customHeight="1">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" ht="14" customHeight="1">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" ht="14" customHeight="1">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" ht="14" customHeight="1">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" ht="14" customHeight="1">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" ht="14" customHeight="1">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" ht="14" customHeight="1">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" ht="14" customHeight="1">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" ht="14" customHeight="1">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" ht="14" customHeight="1">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" ht="14" customHeight="1">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" ht="14" customHeight="1">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" ht="14" customHeight="1">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" ht="14" customHeight="1">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" ht="14" customHeight="1">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" ht="14" customHeight="1">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" ht="14" customHeight="1">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" ht="14" customHeight="1">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" ht="14" customHeight="1">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" ht="14" customHeight="1">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" ht="14" customHeight="1">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="112" ht="14" customHeight="1">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" ht="14" customHeight="1">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" ht="14" customHeight="1">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" ht="14" customHeight="1">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="116" ht="14" customHeight="1">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" ht="14" customHeight="1">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" ht="14" customHeight="1">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" ht="14" customHeight="1">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" ht="14" customHeight="1">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" ht="14" customHeight="1">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" ht="14" customHeight="1">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" ht="14" customHeight="1">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" ht="14" customHeight="1">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" ht="14" customHeight="1">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" ht="14" customHeight="1">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="127" ht="14" customHeight="1">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" ht="14" customHeight="1">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" ht="14" customHeight="1">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" ht="14" customHeight="1">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="131" ht="14" customHeight="1">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" ht="14" customHeight="1">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" ht="14" customHeight="1">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="134" ht="14" customHeight="1">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="135" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:D76">
+  <autoFilter ref="A1:D134">
   </autoFilter>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -2390,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -2404,13 +3210,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1"/>
@@ -2467,10 +3273,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -2481,10 +3287,10 @@
         <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -2495,10 +3301,10 @@
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -2677,10 +3483,10 @@
         <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -2691,10 +3497,10 @@
         <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -2705,10 +3511,10 @@
         <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -2719,10 +3525,10 @@
         <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -2733,10 +3539,10 @@
         <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -2747,10 +3553,10 @@
         <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -2761,10 +3567,10 @@
         <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -2775,10 +3581,10 @@
         <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -2789,10 +3595,10 @@
         <v>62</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -2803,10 +3609,10 @@
         <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -2817,10 +3623,10 @@
         <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -2831,10 +3637,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -2845,10 +3651,10 @@
         <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -2859,10 +3665,10 @@
         <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -2873,10 +3679,10 @@
         <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -2887,10 +3693,10 @@
         <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -2901,10 +3707,10 @@
         <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -2915,10 +3721,10 @@
         <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -2926,10 +3732,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>61</v>
@@ -2940,13 +3746,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -2954,13 +3760,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -2968,13 +3774,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -2982,13 +3788,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -2996,13 +3802,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -3010,13 +3816,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -3024,13 +3830,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -3038,13 +3844,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -3052,13 +3858,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -3066,13 +3872,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -3080,13 +3886,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -3094,13 +3900,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -3108,13 +3914,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -3122,13 +3928,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -3136,13 +3942,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -3150,13 +3956,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -3164,13 +3970,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -3178,13 +3984,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -3192,13 +3998,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -3206,13 +4012,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -3220,13 +4026,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -3234,13 +4040,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -3248,13 +4054,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -3262,13 +4068,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -3276,13 +4082,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -3290,13 +4096,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -3304,13 +4110,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -3318,13 +4124,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -3332,13 +4138,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -3346,13 +4152,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -3360,13 +4166,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -3374,13 +4180,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -3388,13 +4194,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -3402,13 +4208,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -3416,13 +4222,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -3430,13 +4236,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -3444,13 +4250,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -3458,13 +4264,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -3472,13 +4278,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -3486,13 +4292,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -3500,13 +4306,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -3514,13 +4320,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -3528,13 +4334,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -3542,13 +4348,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -3556,13 +4362,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -3570,13 +4376,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -3584,13 +4390,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -3598,13 +4404,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -3612,13 +4418,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -3626,13 +4432,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -3640,13 +4446,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -3654,13 +4460,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -3668,13 +4474,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -3682,13 +4488,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -3696,13 +4502,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -3710,13 +4516,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -3724,13 +4530,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -3738,13 +4544,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -3752,13 +4558,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -3766,13 +4572,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -3780,13 +4586,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -3794,13 +4600,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -3808,13 +4614,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -3822,13 +4628,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -3836,13 +4642,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -3850,13 +4656,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -3864,13 +4670,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -3878,13 +4684,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -3892,13 +4698,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -3906,13 +4712,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -3920,13 +4726,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -3934,13 +4740,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -3948,13 +4754,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -3962,13 +4768,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -3976,13 +4782,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -3990,13 +4796,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -4004,13 +4810,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -4018,13 +4824,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -4032,10 +4838,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>61</v>
@@ -4046,13 +4852,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -4060,13 +4866,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -4074,13 +4880,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -4088,13 +4894,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -4102,13 +4908,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -4116,13 +4922,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -4130,13 +4936,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -4144,13 +4950,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -4158,13 +4964,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -4172,13 +4978,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -4186,13 +4992,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -4200,13 +5006,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -4214,13 +5020,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -4228,13 +5034,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -4242,13 +5048,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -4256,13 +5062,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -4270,13 +5076,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" ht="12" customHeight="1"/>
@@ -4330,10 +5136,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>61</v>
@@ -4344,13 +5150,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -4358,13 +5164,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -4372,13 +5178,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -4386,10 +5192,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>61</v>
@@ -4400,13 +5206,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -4414,13 +5220,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -4428,13 +5234,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" ht="12" customHeight="1"/>
